--- a/Reports/FIO/CertificateToCourt/Certificate.xlsx
+++ b/Reports/FIO/CertificateToCourt/Certificate.xlsx
@@ -87,7 +87,7 @@
     <t>$t1['s_doc']." ".$t1['n_doc']." от ".$t1['data_create']." ".$t1['issued_by']</t>
   </si>
   <si>
-    <t>$this-&gt;H['name_organization_full'] . chr(10) . $this-&gt;H['address'] .chr(10).chr(10) . "от '____' _________2022 г.".chr(10) . "№ __________"</t>
+    <t>$this-&gt;H['name_organization_full'] . chr(10) . $this-&gt;H['address'] .chr(10).chr(10) . "от '____' _________".$this-&gt;H['year']." г.".chr(10) . "№ __________"</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Reports/FIO/CertificateToCourt/Certificate.xlsx
+++ b/Reports/FIO/CertificateToCourt/Certificate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>t1</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Block2</t>
   </si>
   <si>
-    <t>key($this-&gt;tt1)!==null</t>
-  </si>
-  <si>
     <t>1==1</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Справка дана на основании поквартирной карточки, для предъявления по месту требования</t>
   </si>
   <si>
-    <t>Специалист</t>
-  </si>
-  <si>
     <t>$this-&gt;H['status_street']." ".$this-&gt;H['name_street']." ".$this-&gt;H['house']." ".$this-&gt;H['room']</t>
   </si>
   <si>
@@ -88,6 +82,18 @@
   </si>
   <si>
     <t>$this-&gt;H['name_organization_full'] . chr(10) . $this-&gt;H['address'] .chr(10).chr(10) . "от '____' _________".$this-&gt;H['year']." г.".chr(10) . "№ __________"</t>
+  </si>
+  <si>
+    <t>Block3</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['f_registration']=='1'</t>
+  </si>
+  <si>
+    <t>key($this-&gt;tt1)!==null &amp;&amp; $this-&gt;H['f_registration']=='1'</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['AccrualsForYear']." _________________________ ".$this-&gt;H['bookkeeper_KVPL']</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,6 +214,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -548,10 +566,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D8"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,16 +590,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="6"/>
-      <c r="B1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="12"/>
+      <c r="F1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="16"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,78 +613,78 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="6"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="18"/>
+      <c r="F2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="F3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="13"/>
+      <c r="F4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="6"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="14"/>
+      <c r="F5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="6"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="9"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -682,14 +700,14 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="13"/>
       <c r="I10" s="4"/>
       <c r="M10" s="2" t="s">
         <v>6</v>
@@ -698,27 +716,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="3" t="s">
+    <row r="11" spans="1:18" ht="3.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -726,75 +742,87 @@
     <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="P13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+    <row r="15" spans="1:18" ht="15" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6"/>
@@ -804,10 +832,22 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
+      <c r="I16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="6"/>
@@ -826,32 +866,52 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="M23" s="2" t="s">
+      <c r="A19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="M25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C14:G14"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F3:G3"/>

--- a/Reports/FIO/CertificateToCourt/Certificate.xlsx
+++ b/Reports/FIO/CertificateToCourt/Certificate.xlsx
@@ -93,7 +93,7 @@
     <t>key($this-&gt;tt1)!==null &amp;&amp; $this-&gt;H['f_registration']=='1'</t>
   </si>
   <si>
-    <t>$this-&gt;H['AccrualsForYear']." _________________________ ".$this-&gt;H['bookkeeper_KVPL']</t>
+    <t>$this-&gt;H['AccrualsForYear']." _________________________ ".$this-&gt;H['Signatory']</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
